--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2756.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2756.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162599262845986</v>
+        <v>1.928091645240784</v>
       </c>
       <c r="B1">
-        <v>2.423745905293434</v>
+        <v>2.241205453872681</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.445765972137451</v>
       </c>
       <c r="D1">
-        <v>2.36716038549707</v>
+        <v>3.566776514053345</v>
       </c>
       <c r="E1">
-        <v>1.223279720886755</v>
+        <v>0.9629173874855042</v>
       </c>
     </row>
   </sheetData>
